--- a/src/test/resources/output/MultiSheets.xlsx
+++ b/src/test/resources/output/MultiSheets.xlsx
@@ -148,7 +148,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Generated on: Tue Mar 10 00:59:15 IST 2020</t>
+          <t>Generated on: Fri Mar 26 23:51:27 WEST 2021</t>
         </is>
       </c>
     </row>
@@ -219,11 +219,9 @@
         <v>43899.958645833336</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>33026.88402777778</v>
-      </c>
-      <c r="H5" s="8" t="n">
-        <v>0.124</v>
-      </c>
+        <v>33026.48819444444</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -247,11 +245,9 @@
         <v>43899.958645833336</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>42048.10555555556</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>1.0</v>
-      </c>
+        <v>42047.66805555556</v>
+      </c>
+      <c r="H6"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H4"/>
@@ -361,38 +357,20 @@
           <t>MI5</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1000007.0</v>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2" s="6" t="n">
         <v>43899.958645833336</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>12.243577</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>7.72871289</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>182.0</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>86.5</v>
-      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -405,38 +383,20 @@
           <t>CTU</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>250000.0</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3" s="6" t="n">
         <v>43899.958645833336</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>-9.820129</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>4.820192</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>87.0</v>
-      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -449,38 +409,20 @@
           <t>CIA</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>450000.0</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="E4" s="6" t="n">
         <v>43899.958645833336</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>-12.91092</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>11.8102909</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>82.5</v>
-      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
@@ -488,28 +430,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="UTF-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="UTF-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><dimension ref="A1"/><sheetViews><sheetView workbookViewId="0"><pane ySplit="4.0" state="frozen" topLeftCell="A5" activePane="bottomLeft"/><selection pane="bottomLeft"/></sheetView></sheetViews><sheetFormatPr defaultRowHeight="15.0"/><cols><col min="1" max="1" width="14.78125" customWidth="true"/><col min="2" max="2" width="19.78125" customWidth="true"/><col min="3" max="3" width="18.78125" customWidth="true"/><col min="4" max="4" width="17.78125" customWidth="true"/></cols><sheetData>
 <row r="1">
 <c r="A1" s="13" t="inlineStr"><is><t>Test of Edge Cases</t></is></c></row>
 <row r="2">
-<c r="A2" t="inlineStr"><is><t>Generated on: Tue Mar 10 00:59:15 IST 2020</t></is></c></row>
+<c r="A2" t="inlineStr"><is><t>Generated on: Fri Mar 26 23:51:27 WEST 2021</t></is></c></row>
 <row r="3">
 <c r="A3"></c></row>
 <row r="4">
 <c r="A4" s="14" t="inlineStr"><is><t>String Date</t></is></c><c r="B4" s="14" t="inlineStr"><is><t>String Date Time</t></is></c><c r="C4" s="14" t="inlineStr"><is><t>String Currency</t></is></c><c r="D4" s="14" t="inlineStr"><is><t>String Percent</t></is></c></row>
 <row r="5">
-<c r="A5" s="6" t="n"><v>43727.395833333336</v></c><c r="B5" s="7" t="n"><v>43488.510150462964</v></c><c r="C5" s="5" t="n"><v>1000.0</v></c><c r="D5" s="4" t="n"><v>0.01</v></c></row>
+<c r="A5" s="6"></c><c r="B5" s="7"></c><c r="C5"></c><c r="D5"></c></row>
 <row r="6">
-<c r="A6" s="6" t="n"><v>43425.0</v></c><c r="B6" s="7" t="n"><v>35960.0</v></c><c r="C6" s="5" t="n"><v>-9826382.76</v></c><c r="D6" s="4" t="n"><v>2.88E-6</v></c></row>
+<c r="A6" s="6"></c><c r="B6" s="7"></c><c r="C6"></c><c r="D6"></c></row>
 <row r="7">
-<c r="A7" s="6"></c><c r="B7" s="7"></c><c r="C7" s="5"></c><c r="D7" s="4"></c></row>
+<c r="A7" s="6"></c><c r="B7" s="7"></c><c r="C7"></c><c r="D7"></c></row>
 <row r="8">
 <c r="A8" s="6"></c><c r="B8" s="7"></c><c r="C8" s="5"></c><c r="D8" s="4"></c></row>
-" t="n"><v>12.243577</v></c><c r="J2" s="4" t="n"><v>7.72871289</v></c><c r="K2" s="2" t="n"><v>182.0</v></c><c r="L2" s="3" t="n"><v>86.5</v></c></row>
+ s="6" t="n"><v>43899.958645833336</v></c><c r="F2" t="b"><v>1</v></c><c r="G2"></c><c r="H2"></c><c r="I2"></c><c r="J2"></c><c r="K2"></c><c r="L2"></c></row>
 <row r="3">
-<c r="A3" t="inlineStr"><is><t>Jack Bauer</t></is></c><c r="B3" t="inlineStr"><is><t>CTU</t></is></c><c r="C3" s="2" t="n"><v>47.0</v></c><c r="D3" s="2" t="n"><v>250000.0</v></c><c r="E3" s="6" t="n"><v>43899.958645833336</v></c><c r="F3" t="b"><v>1</v></c><c r="G3" t="inlineStr"><is><t>A</t></is></c><c r="H3" s="2" t="n"><v>24.0</v></c><c r="I3" s="4" t="n"><v>-9.820129</v></c><c r="J3" s="4" t="n"><v>4.820192</v></c><c r="K3" s="2" t="n"><v>180.0</v></c><c r="L3" s="3" t="n"><v>87.0</v></c></row>
+<c r="A3" t="inlineStr"><is><t>Jack Bauer</t></is></c><c r="B3" t="inlineStr"><is><t>CTU</t></is></c><c r="C3"></c><c r="D3"></c><c r="E3" s="6" t="n"><v>43899.958645833336</v></c><c r="F3" t="b"><v>1</v></c><c r="G3"></c><c r="H3"></c><c r="I3"></c><c r="J3"></c><c r="K3"></c><c r="L3"></c></row>
 <row r="4">
-<c r="A4" t="inlineStr"><is><t>Jason Bourne</t></is></c><c r="B4" t="inlineStr"><is><t>CIA</t></is></c><c r="C4" s="2" t="n"><v>43.0</v></c><c r="D4" s="2" t="n"><v>450000.0</v></c><c r="E4" s="6" t="n"><v>43899.958645833336</v></c><c r="F4" t="b"><v>0</v></c><c r="G4" t="inlineStr"><is><t>S</t></is></c><c r="H4" s="2" t="n"><v>7.0</v></c><c r="I4" s="4" t="n"><v>-12.91092</v></c><c r="J4" s="4" t="n"><v>11.8102909</v></c><c r="K4" s="2" t="n"><v>178.0</v></c><c r="L4" s="3" t="n"><v>82.5</v></c></row>
+<c r="A4" t="inlineStr"><is><t>Jason Bourne</t></is></c><c r="B4" t="inlineStr"><is><t>CIA</t></is></c><c r="C4"></c><c r="D4"></c><c r="E4" s="6" t="n"><v>43899.958645833336</v></c><c r="F4" t="b"><v>0</v></c><c r="G4"></c><c r="H4"></c><c r="I4"></c><c r="J4"></c><c r="K4"></c><c r="L4"></c></row>
 </sheetData><autoFilter ref="A4:D4"/><mergeCells count="2"><mergeCell ref="A1:F1"/><mergeCell ref="A2:F2"/></mergeCells><pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/></worksheet>
 </file>